--- a/present/_monitor.xlsx
+++ b/present/_monitor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21600" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="920" windowWidth="21600" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Work Order Tracking Form" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Assigned To</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>Team lead</t>
+  </si>
+  <si>
+    <t>sysuicompmgr::launch sequence for the coming tasks</t>
+  </si>
+  <si>
+    <t>26/9/2024</t>
+  </si>
+  <si>
+    <t>Research onSurfaceRemoved</t>
+  </si>
+  <si>
+    <t>27/9/24</t>
+  </si>
+  <si>
+    <t>X's button research</t>
   </si>
 </sst>
 </file>
@@ -119,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Complete&quot;;&quot;&quot;;&quot;Incomplete&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
@@ -171,6 +186,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +233,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -238,6 +260,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -267,13 +295,6 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -291,6 +312,13 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -372,11 +400,11 @@
     <tableColumn id="2" name="Description" dataCellStyle="Normal"/>
     <tableColumn id="8" name="Requested By"/>
     <tableColumn id="3" name="Assigned To"/>
-    <tableColumn id="4" name="Start Date" dataDxfId="2" dataCellStyle="Date"/>
-    <tableColumn id="5" name="Due Date" dataDxfId="1" dataCellStyle="Date"/>
-    <tableColumn id="10" name="Done  Date" dataDxfId="0" dataCellStyle="Date"/>
+    <tableColumn id="4" name="Start Date" dataDxfId="3" dataCellStyle="Date"/>
+    <tableColumn id="5" name="Due Date" dataDxfId="2" dataCellStyle="Date"/>
+    <tableColumn id="10" name="Done  Date" dataDxfId="1" dataCellStyle="Date"/>
     <tableColumn id="9" name="% Complete" dataCellStyle="Percent"/>
-    <tableColumn id="7" name="Status" dataDxfId="3" dataCellStyle="Status Icon">
+    <tableColumn id="7" name="Status" dataDxfId="0" dataCellStyle="Status Icon">
       <calculatedColumnFormula>IFERROR(IF(WorkOrders[[#This Row],[% Complete]]=1,1,IF(ISBLANK(WorkOrders[[#This Row],[Due Date]]),"",IF(AND(TODAY()&gt;WorkOrders[[#This Row],[Due Date]],WorkOrders[[#This Row],[% Complete]]&lt;&gt;1),0,-1))), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -623,7 +651,7 @@
   <dimension ref="B1:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -677,22 +705,22 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="4">
@@ -707,22 +735,22 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="10">
         <v>45421</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="10">
         <v>45574</v>
       </c>
       <c r="I4" s="4">
@@ -737,22 +765,22 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="4">
@@ -767,22 +795,22 @@
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="4">
@@ -797,23 +825,25 @@
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="4">
+        <v>0.5</v>
+      </c>
       <c r="J7" s="5">
         <f ca="1">IFERROR(IF(WorkOrders[[#This Row],[% Complete]]=1,1,IF(ISBLANK(WorkOrders[[#This Row],[Due Date]]),"",IF(AND(TODAY()&gt;WorkOrders[[#This Row],[Due Date]],WorkOrders[[#This Row],[% Complete]]&lt;&gt;1),0,-1))), "")</f>
         <v>-1</v>
@@ -823,32 +853,75 @@
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5" t="str">
-        <f ca="1">IFERROR(IF(WorkOrders[[#This Row],[% Complete]]=1,1,IF(ISBLANK(WorkOrders[[#This Row],[Due Date]]),"",IF(AND(TODAY()&gt;WorkOrders[[#This Row],[Due Date]],WorkOrders[[#This Row],[% Complete]]&lt;&gt;1),0,-1))), "")</f>
-        <v/>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <f ca="1">IFERROR(IF(WorkOrders[[#This Row],[% Complete]]=1,1,IF(ISBLANK(WorkOrders[[#This Row],[Due Date]]),"",IF(AND(TODAY()&gt;WorkOrders[[#This Row],[Due Date]],WorkOrders[[#This Row],[% Complete]]&lt;&gt;1),0,-1))), "")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5" t="str">
-        <f ca="1">IFERROR(IF(WorkOrders[[#This Row],[% Complete]]=1,1,IF(ISBLANK(WorkOrders[[#This Row],[Due Date]]),"",IF(AND(TODAY()&gt;WorkOrders[[#This Row],[Due Date]],WorkOrders[[#This Row],[% Complete]]&lt;&gt;1),0,-1))), "")</f>
-        <v/>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <f ca="1">IFERROR(IF(WorkOrders[[#This Row],[% Complete]]=1,1,IF(ISBLANK(WorkOrders[[#This Row],[Due Date]]),"",IF(AND(TODAY()&gt;WorkOrders[[#This Row],[Due Date]],WorkOrders[[#This Row],[% Complete]]&lt;&gt;1),0,-1))), "")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4">
+        <v>0.2</v>
+      </c>
       <c r="J10" s="5" t="str">
         <f ca="1">IFERROR(IF(WorkOrders[[#This Row],[% Complete]]=1,1,IF(ISBLANK(WorkOrders[[#This Row],[Due Date]]),"",IF(AND(TODAY()&gt;WorkOrders[[#This Row],[Due Date]],WorkOrders[[#This Row],[% Complete]]&lt;&gt;1),0,-1))), "")</f>
         <v/>
@@ -935,11 +1008,11 @@
       </c>
       <c r="F17" s="6">
         <f ca="1">TODAY()</f>
-        <v>45560</v>
+        <v>45565</v>
       </c>
       <c r="G17" s="6">
         <f ca="1">WorkOrders[[#This Row],[Start Date]]+30</f>
-        <v>45590</v>
+        <v>45595</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="4">

--- a/present/_monitor.xlsx
+++ b/present/_monitor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="21600" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="21600" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Work Order Tracking Form" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Assigned To</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>X's button research</t>
+  </si>
+  <si>
+    <t>HMCCCRC-19439</t>
+  </si>
+  <si>
+    <t>HMCCCRC-19419</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Complete&quot;;&quot;&quot;;&quot;Incomplete&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
@@ -193,6 +199,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +225,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -232,8 +246,11 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -267,12 +284,16 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Date" xfId="6"/>
     <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Status Icon" xfId="7"/>
@@ -651,7 +672,7 @@
   <dimension ref="B1:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -928,7 +949,12 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -939,7 +965,12 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1111,14 +1142,18 @@
       <formula1>"0%, 25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C12" r:id="rId2"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/present/_monitor.xlsx
+++ b/present/_monitor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1380" windowWidth="21600" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="21600" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Work Order Tracking Form" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Work Order Tracking Form'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1039,11 +1040,11 @@
       </c>
       <c r="F17" s="6">
         <f ca="1">TODAY()</f>
-        <v>45565</v>
+        <v>45567</v>
       </c>
       <c r="G17" s="6">
         <f ca="1">WorkOrders[[#This Row],[Start Date]]+30</f>
-        <v>45595</v>
+        <v>45597</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="4">

--- a/present/_monitor.xlsx
+++ b/present/_monitor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="21600" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="2760" windowWidth="21600" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Work Order Tracking Form" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Work Order Tracking Form'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -673,7 +672,7 @@
   <dimension ref="B1:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1040,11 +1039,11 @@
       </c>
       <c r="F17" s="6">
         <f ca="1">TODAY()</f>
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="G17" s="6">
         <f ca="1">WorkOrders[[#This Row],[Start Date]]+30</f>
-        <v>45597</v>
+        <v>45602</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="4">
